--- a/SMA - Software Measurement & Analysis/Assignment-08/SMA-TamDo-Ass08-Ver0.3.xlsx
+++ b/SMA - Software Measurement & Analysis/Assignment-08/SMA-TamDo-Ass08-Ver0.3.xlsx
@@ -475,7 +475,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.1620514188988475E-2"/>
-          <c:y val="9.8835012472167277E-2"/>
+          <c:y val="9.8835012472167291E-2"/>
           <c:w val="0.92959295949811094"/>
           <c:h val="0.76830362435426691"/>
         </c:manualLayout>
@@ -1359,11 +1359,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71747840"/>
-        <c:axId val="71757824"/>
+        <c:axId val="84916096"/>
+        <c:axId val="84917632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71747840"/>
+        <c:axId val="84916096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,14 +1371,14 @@
         <c:minorGridlines/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71757824"/>
+        <c:crossAx val="84917632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71757824"/>
+        <c:axId val="84917632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1405,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71747840"/>
+        <c:crossAx val="84916096"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,7 +1418,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1445,7 +1445,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1732,11 +1731,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78613120"/>
-        <c:axId val="78635776"/>
+        <c:axId val="86809984"/>
+        <c:axId val="86844928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78613120"/>
+        <c:axId val="86809984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7"/>
@@ -1759,19 +1758,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78635776"/>
+        <c:crossAx val="86844928"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78635776"/>
+        <c:axId val="86844928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7"/>
@@ -1795,12 +1793,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78613120"/>
+        <c:crossAx val="86809984"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1809,13 +1806,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2266,15 +2262,15 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78094720"/>
-        <c:axId val="78096640"/>
+        <c:axId val="85233664"/>
+        <c:axId val="85235584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78094720"/>
+        <c:axId val="85233664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
-          <c:min val="0.75000000000000033"/>
+          <c:min val="0.75000000000000044"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
@@ -2298,25 +2294,25 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.43376895636975754"/>
-              <c:y val="0.94634176878234999"/>
+              <c:x val="0.43376895636975765"/>
+              <c:y val="0.94634176878234988"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78096640"/>
+        <c:crossAx val="85235584"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78096640"/>
+        <c:axId val="85235584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
-          <c:min val="0.75000000000000044"/>
+          <c:min val="0.75000000000000056"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -2348,7 +2344,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78094720"/>
+        <c:crossAx val="85233664"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -2361,10 +2357,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.89958881837300309"/>
+          <c:x val="0.8995888183730032"/>
           <c:y val="0.10192388451443568"/>
           <c:w val="8.225918147037381E-2"/>
-          <c:h val="0.37672736220472453"/>
+          <c:h val="0.37672736220472464"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -2372,7 +2368,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2399,7 +2395,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2760,11 +2755,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77512704"/>
-        <c:axId val="77514624"/>
+        <c:axId val="85291008"/>
+        <c:axId val="85292928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77512704"/>
+        <c:axId val="85291008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2787,17 +2782,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77514624"/>
+        <c:crossAx val="85292928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77514624"/>
+        <c:axId val="85292928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,24 +2813,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77512704"/>
+        <c:crossAx val="85291008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2862,7 +2854,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3286,15 +3277,15 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78180736"/>
-        <c:axId val="78182656"/>
+        <c:axId val="86389888"/>
+        <c:axId val="86391808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78180736"/>
+        <c:axId val="86389888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
-          <c:min val="0.75000000000000022"/>
+          <c:min val="0.75000000000000033"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -3313,21 +3304,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78182656"/>
+        <c:crossAx val="86391808"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78182656"/>
+        <c:axId val="86391808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
-          <c:min val="0.75000000000000022"/>
+          <c:min val="0.75000000000000033"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -3347,27 +3337,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78180736"/>
+        <c:crossAx val="86389888"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
-        <c:minorUnit val="1.0000000000000004E-2"/>
+        <c:minorUnit val="1.0000000000000005E-2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3394,7 +3382,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3599,11 +3586,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78233600"/>
-        <c:axId val="78235520"/>
+        <c:axId val="86434560"/>
+        <c:axId val="86436480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78233600"/>
+        <c:axId val="86434560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3626,17 +3613,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78235520"/>
+        <c:crossAx val="86436480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78235520"/>
+        <c:axId val="86436480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3658,24 +3644,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78233600"/>
+        <c:crossAx val="86434560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3701,7 +3685,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3916,15 +3899,15 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78251136"/>
-        <c:axId val="78253056"/>
+        <c:axId val="86484864"/>
+        <c:axId val="86659072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78251136"/>
+        <c:axId val="86484864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
-          <c:min val="0.75000000000000044"/>
+          <c:min val="0.75000000000000056"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -3943,21 +3926,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78253056"/>
+        <c:crossAx val="86659072"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78253056"/>
+        <c:axId val="86659072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
-          <c:min val="0.75000000000000044"/>
+          <c:min val="0.75000000000000056"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -3977,12 +3959,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78251136"/>
+        <c:crossAx val="86484864"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -3991,13 +3972,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4024,7 +4004,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4277,11 +4256,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78657408"/>
-        <c:axId val="78405632"/>
+        <c:axId val="86817792"/>
+        <c:axId val="86598784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78657408"/>
+        <c:axId val="86817792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4304,17 +4283,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78405632"/>
+        <c:crossAx val="86598784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78405632"/>
+        <c:axId val="86598784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4336,24 +4314,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78657408"/>
+        <c:crossAx val="86817792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4379,7 +4355,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4617,15 +4592,15 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78452224"/>
-        <c:axId val="78454144"/>
+        <c:axId val="86624512"/>
+        <c:axId val="86688128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78452224"/>
+        <c:axId val="86624512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7"/>
-          <c:min val="0.3000000000000001"/>
+          <c:min val="0.30000000000000016"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -4644,23 +4619,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78454144"/>
+        <c:crossAx val="86688128"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
-        <c:minorUnit val="2.0000000000000007E-2"/>
+        <c:minorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78454144"/>
+        <c:axId val="86688128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7"/>
-          <c:min val="0.3000000000000001"/>
+          <c:min val="0.30000000000000016"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -4680,27 +4654,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78452224"/>
+        <c:crossAx val="86624512"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
-        <c:minorUnit val="2.0000000000000007E-2"/>
+        <c:minorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4727,7 +4699,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5040,11 +5011,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78566528"/>
-        <c:axId val="78568448"/>
+        <c:axId val="86693760"/>
+        <c:axId val="86794240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78566528"/>
+        <c:axId val="86693760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5067,17 +5038,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78568448"/>
+        <c:crossAx val="86794240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78568448"/>
+        <c:axId val="86794240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5099,24 +5069,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78566528"/>
+        <c:crossAx val="86693760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7368,155 +7336,6 @@
             <a:rPr lang="en-US" sz="1500" b="1"/>
             <a:t>W28</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.12041</cdr:x>
-      <cdr:y>0.08272</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="31" name="Rectangle 30"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="0"/>
-          <a:ext cx="1322314" cy="504262"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
-            <a:t>Ahead Schedule</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
-            <a:t>Over Budget</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1300" b="1"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -13650,35 +13469,35 @@
         <v>4356.3585299999995</v>
       </c>
       <c r="R78" s="3">
-        <f>R158+1332+R314+R393</f>
+        <f t="shared" ref="R78:T79" si="2">R158+1332+R314+R393</f>
         <v>4536.3585299999995</v>
       </c>
       <c r="S78" s="3">
-        <f>S158+1332+S314+S393</f>
+        <f t="shared" si="2"/>
         <v>4796.3585199999998</v>
       </c>
       <c r="T78" s="3">
-        <f>T158+1332+T314+T393</f>
+        <f t="shared" si="2"/>
         <v>5096.3585199999998</v>
       </c>
       <c r="U78" s="3">
-        <f t="shared" ref="U78:Y78" si="2">U158+1332+U314+U393</f>
+        <f t="shared" ref="U78:Y78" si="3">U158+1332+U314+U393</f>
         <v>5396.3585199999998</v>
       </c>
       <c r="V78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5648.3585200000007</v>
       </c>
       <c r="W78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6017.6918599999999</v>
       </c>
       <c r="X78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6307.0251900000003</v>
       </c>
       <c r="Y78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6492.3585199999998</v>
       </c>
       <c r="Z78" s="3">
@@ -13686,15 +13505,15 @@
         <v>6667.2683300000008</v>
       </c>
       <c r="AA78" s="3">
-        <f t="shared" ref="AA78:AC78" si="3">AA158+1332+2434.86+AA393</f>
+        <f t="shared" ref="AA78:AC78" si="4">AA158+1332+2434.86+AA393</f>
         <v>6851.9483300000002</v>
       </c>
       <c r="AB78" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6983.2683300000008</v>
       </c>
       <c r="AC78" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7443.2683300000008</v>
       </c>
       <c r="AD78" s="3">
@@ -13702,27 +13521,27 @@
         <v>7881.6083300000009</v>
       </c>
       <c r="AE78" s="3">
-        <f t="shared" ref="AE78:AJ78" si="4">AE158+1332+2434.86+AE393</f>
+        <f t="shared" ref="AE78:AJ78" si="5">AE158+1332+2434.86+AE393</f>
         <v>8081.6083300000009</v>
       </c>
       <c r="AF78" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8368.1933300000001</v>
       </c>
       <c r="AG78" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8828.1933300000001</v>
       </c>
       <c r="AH78" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9024.1933300000001</v>
       </c>
       <c r="AI78" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9044.1933300000001</v>
       </c>
       <c r="AJ78" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9064.1933300000001</v>
       </c>
       <c r="AK78" s="3">
@@ -13730,43 +13549,43 @@
         <v>10348.19333</v>
       </c>
       <c r="AL78" s="3">
-        <f>AL158+1332+2434.86+4037.33+AL404</f>
+        <f t="shared" ref="AL78:AU78" si="6">AL158+1332+2434.86+4037.33+AL404</f>
         <v>10416.19</v>
       </c>
       <c r="AM78" s="3">
-        <f>AM158+1332+2434.86+4037.33+AM404</f>
+        <f t="shared" si="6"/>
         <v>10572.19</v>
       </c>
       <c r="AN78" s="3">
-        <f>AN158+1332+2434.86+4037.33+AN404</f>
+        <f t="shared" si="6"/>
         <v>10792.19</v>
       </c>
       <c r="AO78" s="3">
-        <f>AO158+1332+2434.86+4037.33+AO404</f>
+        <f t="shared" si="6"/>
         <v>11012.19</v>
       </c>
       <c r="AP78" s="3">
-        <f>AP158+1332+2434.86+4037.33+AP404</f>
+        <f t="shared" si="6"/>
         <v>11232.19</v>
       </c>
       <c r="AQ78" s="3">
-        <f>AQ158+1332+2434.86+4037.33+AQ404</f>
+        <f t="shared" si="6"/>
         <v>11452.19</v>
       </c>
       <c r="AR78" s="3">
-        <f>AR158+1332+2434.86+4037.33+AR404</f>
+        <f t="shared" si="6"/>
         <v>11672.19</v>
       </c>
       <c r="AS78" s="3">
-        <f>AS158+1332+2434.86+4037.33+AS404</f>
+        <f t="shared" si="6"/>
         <v>11892.19</v>
       </c>
       <c r="AT78" s="3">
-        <f>AT158+1332+2434.86+4037.33+AT404</f>
+        <f t="shared" si="6"/>
         <v>12120.19</v>
       </c>
       <c r="AU78" s="3">
-        <f>AU158+1332+2434.86+4037.33+AU404</f>
+        <f t="shared" si="6"/>
         <v>12148.19</v>
       </c>
       <c r="AV78" s="3">
@@ -13791,91 +13610,91 @@
         <v>596</v>
       </c>
       <c r="D79" s="3">
-        <f t="shared" ref="D79:Q79" si="5">D159+D238+D315+D394</f>
+        <f t="shared" ref="D79:Q79" si="7">D159+D238+D315+D394</f>
         <v>775.55332999999996</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1001.77667</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1249.3333299999999</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1489.6133299999999</v>
       </c>
       <c r="H79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1650.0949899999998</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2214.4135199999996</v>
       </c>
       <c r="J79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2336.0718499999998</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2484.9168599999998</v>
       </c>
       <c r="L79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2713.02853</v>
       </c>
       <c r="M79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2952.4185300000004</v>
       </c>
       <c r="N79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3108.0852</v>
       </c>
       <c r="O79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3455.34186</v>
       </c>
       <c r="P79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3727.5918700000002</v>
       </c>
       <c r="Q79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3945.7852000000003</v>
       </c>
       <c r="R79" s="3">
-        <f>R159+1332+R315+R394</f>
+        <f t="shared" si="2"/>
         <v>4125.7485299999998</v>
       </c>
       <c r="S79" s="3">
-        <f>S159+1332+S315+S394</f>
+        <f t="shared" si="2"/>
         <v>4305.7485299999998</v>
       </c>
       <c r="T79" s="3">
-        <f>T159+1332+T315+T394</f>
+        <f t="shared" si="2"/>
         <v>4487.6851999999999</v>
       </c>
       <c r="U79" s="3">
-        <f t="shared" ref="U79:Y79" si="6">U159+1332+U315+U394</f>
+        <f t="shared" ref="U79:Y79" si="8">U159+1332+U315+U394</f>
         <v>4661.7152000000006</v>
       </c>
       <c r="V79" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4971.1485299999995</v>
       </c>
       <c r="W79" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5263.9085299999997</v>
       </c>
       <c r="X79" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5541.6318599999995</v>
       </c>
       <c r="Y79" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5877.9251899999999</v>
       </c>
       <c r="Z79" s="3">
@@ -13883,15 +13702,15 @@
         <v>6259.2400000000007</v>
       </c>
       <c r="AA79" s="3">
-        <f t="shared" ref="AA79:AC79" si="7">AA159+1332+2434.86+AA394</f>
+        <f t="shared" ref="AA79:AC79" si="9">AA159+1332+2434.86+AA394</f>
         <v>6479.2400000000007</v>
       </c>
       <c r="AB79" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6693.5483300000005</v>
       </c>
       <c r="AC79" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6840.6183300000012</v>
       </c>
       <c r="AD79" s="3"/>
@@ -13928,59 +13747,59 @@
         <v>564</v>
       </c>
       <c r="D80" s="3">
-        <f t="shared" ref="D80:Q80" si="8">D160+D239+D316+D395</f>
+        <f t="shared" ref="D80:Q80" si="10">D160+D239+D316+D395</f>
         <v>740</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>964</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1204</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1448</v>
       </c>
       <c r="H80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1564</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1804</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1952</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2128</v>
       </c>
       <c r="L80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2376</v>
       </c>
       <c r="M80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2628</v>
       </c>
       <c r="N80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2768</v>
       </c>
       <c r="O80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3114</v>
       </c>
       <c r="P80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3390</v>
       </c>
       <c r="Q80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3606</v>
       </c>
       <c r="R80" s="3">
@@ -13996,23 +13815,23 @@
         <v>4182</v>
       </c>
       <c r="U80" s="3">
-        <f t="shared" ref="U80:Y80" si="9">U160+1332+U316+U395</f>
+        <f t="shared" ref="U80:Y80" si="11">U160+1332+U316+U395</f>
         <v>4362</v>
       </c>
       <c r="V80" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4664</v>
       </c>
       <c r="W80" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4962</v>
       </c>
       <c r="X80" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5238</v>
       </c>
       <c r="Y80" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5582</v>
       </c>
       <c r="Z80" s="3">
@@ -14020,15 +13839,15 @@
         <v>5955</v>
       </c>
       <c r="AA80" s="3">
-        <f t="shared" ref="AA80:AC80" si="10">AA160+1332+2164+AA395</f>
+        <f t="shared" ref="AA80:AC80" si="12">AA160+1332+2164+AA395</f>
         <v>6168</v>
       </c>
       <c r="AB80" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6344</v>
       </c>
       <c r="AC80" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6460</v>
       </c>
       <c r="AD80" s="3">
@@ -14040,75 +13859,75 @@
         <v>6460</v>
       </c>
       <c r="AF80" s="3">
-        <f t="shared" ref="AF80:AW80" si="11">1084+1332+2164+1880</f>
+        <f t="shared" ref="AF80:AW80" si="13">1084+1332+2164+1880</f>
         <v>6460</v>
       </c>
       <c r="AG80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AH80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AI80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AJ80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AK80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AL80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AM80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AN80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AO80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AP80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AQ80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AR80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AS80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AT80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AU80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AV80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
       <c r="AW80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6460</v>
       </c>
     </row>
@@ -14121,111 +13940,111 @@
         <v>-52.019999999999982</v>
       </c>
       <c r="C81" s="3">
-        <f t="shared" ref="C81:AC81" si="12">C79-C80</f>
+        <f t="shared" ref="C81:AC81" si="14">C79-C80</f>
         <v>32</v>
       </c>
       <c r="D81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>35.55332999999996</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>37.776669999999967</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>45.333329999999933</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>41.613329999999905</v>
       </c>
       <c r="H81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>86.094989999999825</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>410.41351999999961</v>
       </c>
       <c r="J81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>384.07184999999981</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>356.91685999999982</v>
       </c>
       <c r="L81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>337.02853000000005</v>
       </c>
       <c r="M81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>324.41853000000037</v>
       </c>
       <c r="N81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>340.08519999999999</v>
       </c>
       <c r="O81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>341.34186</v>
       </c>
       <c r="P81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>337.5918700000002</v>
       </c>
       <c r="Q81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>339.78520000000026</v>
       </c>
       <c r="R81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>339.74852999999985</v>
       </c>
       <c r="S81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>339.74852999999985</v>
       </c>
       <c r="T81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>305.6851999999999</v>
       </c>
       <c r="U81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>299.71520000000055</v>
       </c>
       <c r="V81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>307.14852999999948</v>
       </c>
       <c r="W81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>301.9085299999997</v>
       </c>
       <c r="X81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>303.63185999999951</v>
       </c>
       <c r="Y81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>295.92518999999993</v>
       </c>
       <c r="Z81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>304.24000000000069</v>
       </c>
       <c r="AA81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>311.24000000000069</v>
       </c>
       <c r="AB81" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>349.54833000000053</v>
       </c>
       <c r="AC81" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>380.61833000000115</v>
       </c>
       <c r="AD81" s="3"/>
@@ -14258,111 +14077,111 @@
         <v>0.85708791208791213</v>
       </c>
       <c r="C82" s="3">
-        <f t="shared" ref="C82:AC82" si="13">C79/C80</f>
+        <f t="shared" ref="C82:AC82" si="15">C79/C80</f>
         <v>1.0567375886524824</v>
       </c>
       <c r="D82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0480450405405406</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.039187417012448</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0376522674418605</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0287384875690606</v>
       </c>
       <c r="H82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0550479475703323</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.227501951219512</v>
       </c>
       <c r="J82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1967581198770492</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1677240883458646</v>
       </c>
       <c r="L82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1418470244107743</v>
       </c>
       <c r="M82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1234469292237443</v>
       </c>
       <c r="N82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1228631502890174</v>
       </c>
       <c r="O82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1096152408477842</v>
       </c>
       <c r="P82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0995846224188792</v>
       </c>
       <c r="Q82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0942277315585136</v>
       </c>
       <c r="R82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.089738122028526</v>
       </c>
       <c r="S82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0856652874432677</v>
       </c>
       <c r="T82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.073095456719273</v>
       </c>
       <c r="U82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0687104997707475</v>
       </c>
       <c r="V82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0658551736706687</v>
       </c>
       <c r="W82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0608441213220474</v>
       </c>
       <c r="X82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0579671363115692</v>
       </c>
       <c r="Y82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.053014186671444</v>
       </c>
       <c r="Z82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0510898404701932</v>
       </c>
       <c r="AA82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.050460440985733</v>
       </c>
       <c r="AB82" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0550990431904161</v>
       </c>
       <c r="AC82" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0589192461300312</v>
       </c>
       <c r="AD82" s="3"/>
@@ -14395,111 +14214,111 @@
         <v>0.85708791208791213</v>
       </c>
       <c r="C83" s="3">
-        <f t="shared" ref="C83:AC83" si="14">C79/C78</f>
+        <f t="shared" ref="C83:AC83" si="16">C79/C78</f>
         <v>1</v>
       </c>
       <c r="D83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.83294311029964552</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.80270566506410257</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.79880645655226445</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.82027162135367304</v>
       </c>
       <c r="H83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.8104591890737135</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.98156620263020633</v>
       </c>
       <c r="J83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.95323925423302924</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.8836830341750439</v>
       </c>
       <c r="L83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.85788227016155105</v>
       </c>
       <c r="M83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.85008607844931738</v>
       </c>
       <c r="N83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.85508990058168677</v>
       </c>
       <c r="O83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.87396577711570356</v>
       </c>
       <c r="P83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.8925459448042169</v>
       </c>
       <c r="Q83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.90575309006993066</v>
       </c>
       <c r="R83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.9094846676503765</v>
       </c>
       <c r="S83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.89771198546684117</v>
       </c>
       <c r="T83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.88056701317002328</v>
       </c>
       <c r="U83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.86386313709934914</v>
       </c>
       <c r="V83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.88010499198977876</v>
       </c>
       <c r="W83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.87473879561523438</v>
       </c>
       <c r="X83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.87864432011250604</v>
       </c>
       <c r="Y83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.90536053606602118</v>
       </c>
       <c r="Z83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.93880127365445332</v>
       </c>
       <c r="AA83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.94560549612317357</v>
       </c>
       <c r="AB83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.95851226298216718</v>
       </c>
       <c r="AC83" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.91903422350487807</v>
       </c>
       <c r="AD83" s="3"/>
@@ -18265,71 +18084,71 @@
         <v>-52.019999999999982</v>
       </c>
       <c r="C161" s="3">
-        <f t="shared" ref="C161:S161" si="15">C159-C160</f>
+        <f t="shared" ref="C161:S161" si="17">C159-C160</f>
         <v>32</v>
       </c>
       <c r="D161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="E161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="F161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="G161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="H161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="I161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="J161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="K161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="L161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="M161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="N161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="O161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="P161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="Q161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="R161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="S161" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="T161" s="3">
@@ -18337,39 +18156,39 @@
         <v>36</v>
       </c>
       <c r="U161" s="3">
-        <f t="shared" ref="U161:AC161" si="16">U159-U160</f>
+        <f t="shared" ref="U161:AC161" si="18">U159-U160</f>
         <v>36</v>
       </c>
       <c r="V161" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="W161" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="X161" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="Y161" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="Z161" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="AA161" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="AB161" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="AC161" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
     </row>
@@ -18436,39 +18255,39 @@
         <v>1.0398230088495575</v>
       </c>
       <c r="U162" s="3">
-        <f t="shared" ref="U162:AC162" si="17">U159/U160</f>
+        <f t="shared" ref="U162:AC162" si="19">U159/U160</f>
         <v>1.0389610389610389</v>
       </c>
       <c r="V162" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0381355932203389</v>
       </c>
       <c r="W162" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0373443983402491</v>
       </c>
       <c r="X162" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0365853658536586</v>
       </c>
       <c r="Y162" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0358565737051793</v>
       </c>
       <c r="Z162" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.03515625</v>
       </c>
       <c r="AA162" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0344827586206897</v>
       </c>
       <c r="AB162" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0338345864661653</v>
       </c>
       <c r="AC162" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.033210332103321</v>
       </c>
     </row>
@@ -18480,71 +18299,71 @@
         <v>0.86</v>
       </c>
       <c r="C163">
-        <f t="shared" ref="C163:S163" si="18">C159/C158</f>
+        <f t="shared" ref="C163:S163" si="20">C159/C158</f>
         <v>1</v>
       </c>
       <c r="D163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="G163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="H163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="J163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="N163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Q163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="R163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T163" s="3">
@@ -18552,39 +18371,39 @@
         <v>1</v>
       </c>
       <c r="U163" s="3">
-        <f t="shared" ref="U163:AC163" si="19">U159/U158</f>
+        <f t="shared" ref="U163:AC163" si="21">U159/U158</f>
         <v>1</v>
       </c>
       <c r="V163" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="W163" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="X163" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Y163" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Z163" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AA163" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AB163" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AC163" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -19017,55 +18836,55 @@
         <v>0</v>
       </c>
       <c r="E240" s="3">
-        <f t="shared" ref="E240:Q240" si="20">E238-E239</f>
+        <f t="shared" ref="E240:Q240" si="22">E238-E239</f>
         <v>0</v>
       </c>
       <c r="F240" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G240" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-3.7200000000000273</v>
       </c>
       <c r="H240" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40.761659999999893</v>
       </c>
       <c r="I240" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>70.218329999999924</v>
       </c>
       <c r="J240" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>43.876660000000015</v>
       </c>
       <c r="K240" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="L240" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40.799999999999955</v>
       </c>
       <c r="M240" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40.799999999999955</v>
       </c>
       <c r="N240" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>43.345000000000027</v>
       </c>
       <c r="O240" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>36.799999999999955</v>
       </c>
       <c r="P240" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40.349999999999909</v>
       </c>
       <c r="Q240" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
     </row>
@@ -19078,11 +18897,11 @@
         <v>1</v>
       </c>
       <c r="E241">
-        <f t="shared" ref="E241:F241" si="21">E238/E239</f>
+        <f t="shared" ref="E241:F241" si="23">E238/E239</f>
         <v>1</v>
       </c>
       <c r="F241">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G241">
@@ -19163,7 +18982,7 @@
         <v>0.99</v>
       </c>
       <c r="Q242">
-        <f t="shared" ref="Q242" si="22">Q238/Q237</f>
+        <f t="shared" ref="Q242" si="24">Q238/Q237</f>
         <v>1</v>
       </c>
     </row>
@@ -19694,87 +19513,87 @@
         <v>3.5533300000000025</v>
       </c>
       <c r="E317" s="3">
-        <f t="shared" ref="E317:Y317" si="23">E315-E316</f>
+        <f t="shared" ref="E317:Y317" si="25">E315-E316</f>
         <v>-0.88999999999998636</v>
       </c>
       <c r="F317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>294.86185999999998</v>
       </c>
       <c r="J317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>294.86185999999998</v>
       </c>
       <c r="K317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>275.58353</v>
       </c>
       <c r="L317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>259.68019000000004</v>
       </c>
       <c r="M317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>254.86185999999998</v>
       </c>
       <c r="N317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>260.93353000000002</v>
       </c>
       <c r="O317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>270.86185999999998</v>
       </c>
       <c r="P317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>268.19520000000011</v>
       </c>
       <c r="Q317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>269.52853000000005</v>
       </c>
       <c r="R317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>269.52853000000005</v>
       </c>
       <c r="S317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>269.52853000000005</v>
       </c>
       <c r="T317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>269.52853000000005</v>
       </c>
       <c r="U317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>269.52853000000005</v>
       </c>
       <c r="V317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>269.52853000000005</v>
       </c>
       <c r="W317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>269.52853000000005</v>
       </c>
       <c r="X317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>269.52853000000005</v>
       </c>
       <c r="Y317" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>270.86185999999998</v>
       </c>
     </row>
@@ -19787,87 +19606,87 @@
         <v>1.0740277083333334</v>
       </c>
       <c r="E318" s="3">
-        <f t="shared" ref="E318:Y318" si="24">E315/E316</f>
+        <f t="shared" ref="E318:Y318" si="26">E315/E316</f>
         <v>0.99414473684210536</v>
       </c>
       <c r="F318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="G318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="H318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.6889295794392523</v>
       </c>
       <c r="J318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.6889295794392523</v>
       </c>
       <c r="K318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.5990946304347826</v>
       </c>
       <c r="L318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.5193603800000002</v>
       </c>
       <c r="M318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.4007261949685534</v>
       </c>
       <c r="N318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.3664796769662921</v>
       </c>
       <c r="O318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.3092030365296803</v>
       </c>
       <c r="P318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.2671266932270917</v>
       </c>
       <c r="Q318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.2495634537037037</v>
       </c>
       <c r="R318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.2323521810344829</v>
       </c>
       <c r="S318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.2173617177419356</v>
       </c>
       <c r="T318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.2041882803030304</v>
       </c>
       <c r="U318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1925203785714287</v>
       </c>
       <c r="V318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1684553312500001</v>
       </c>
       <c r="W318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1497380722222224</v>
       </c>
       <c r="X318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1364010779352227</v>
       </c>
       <c r="Y318" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.1251672181146026</v>
       </c>
     </row>
@@ -19880,87 +19699,87 @@
         <v>0.35800923611111113</v>
       </c>
       <c r="E319" s="3">
-        <f t="shared" ref="E319:Y319" si="25">E315/E314</f>
+        <f t="shared" ref="E319:Y319" si="27">E315/E314</f>
         <v>0.43589422657794014</v>
       </c>
       <c r="F319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.44680847795948631</v>
       </c>
       <c r="G319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.52941169583445136</v>
       </c>
       <c r="H319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.53478252440927598</v>
       </c>
       <c r="I319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0425889705314975</v>
       </c>
       <c r="J319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.92201745512332067</v>
       </c>
       <c r="K319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.74942654748330695</v>
       </c>
       <c r="L319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.66549383277782681</v>
       </c>
       <c r="M319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.69587971190549469</v>
       </c>
       <c r="N319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.71528964162856667</v>
       </c>
       <c r="O319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.79632390662268493</v>
       </c>
       <c r="P319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.82814684506335434</v>
       </c>
       <c r="Q319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.83500343173277236</v>
       </c>
       <c r="R319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.84278539311268774</v>
       </c>
       <c r="S319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.81323803559689223</v>
       </c>
       <c r="T319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.77304359903691833</v>
       </c>
       <c r="U319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.73997521907667929</v>
       </c>
       <c r="V319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.77631935225317017</v>
       </c>
       <c r="W319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.84995726615882838</v>
       </c>
       <c r="X319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.92224062764694181</v>
       </c>
       <c r="Y319" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
     </row>
@@ -22101,103 +21920,103 @@
         <v>0</v>
       </c>
       <c r="E396" s="3">
-        <f t="shared" ref="E396:AC396" si="26">E394-E395</f>
+        <f t="shared" ref="E396:AC396" si="28">E394-E395</f>
         <v>6.6666699999999999</v>
       </c>
       <c r="F396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>13.333329999999997</v>
       </c>
       <c r="G396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>13.333329999999997</v>
       </c>
       <c r="H396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>13.333329999999997</v>
       </c>
       <c r="I396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>13.333329999999997</v>
       </c>
       <c r="J396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>13.333329999999997</v>
       </c>
       <c r="K396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>13.333329999999997</v>
       </c>
       <c r="L396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.5483399999999961</v>
       </c>
       <c r="M396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-3.2433300000000003</v>
       </c>
       <c r="N396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.8066699999999969</v>
       </c>
       <c r="O396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.6800000000000068</v>
       </c>
       <c r="P396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-2.953329999999994</v>
       </c>
       <c r="Q396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-1.7433300000000145</v>
       </c>
       <c r="R396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-1.7799999999999727</v>
       </c>
       <c r="S396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-1.7799999999999727</v>
       </c>
       <c r="T396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.15666999999996278</v>
       </c>
       <c r="U396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-5.8133299999999508</v>
       </c>
       <c r="V396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.6200000000000045</v>
       </c>
       <c r="W396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-3.6200000000000045</v>
       </c>
       <c r="X396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-1.8966699999999719</v>
       </c>
       <c r="Y396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-10.936670000000049</v>
       </c>
       <c r="Z396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-2.6199999999998909</v>
       </c>
       <c r="AA396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.3800000000001091</v>
       </c>
       <c r="AB396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>42.688330000000178</v>
       </c>
       <c r="AC396" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>73.758330000000115</v>
       </c>
       <c r="AD396" s="3"/>
@@ -22217,103 +22036,103 @@
         <v>0</v>
       </c>
       <c r="E397" s="3">
-        <f t="shared" ref="E397:AC397" si="27">E394/E395</f>
+        <f t="shared" ref="E397:AC397" si="29">E394/E395</f>
         <v>1.3333334999999999</v>
       </c>
       <c r="F397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3333332499999999</v>
       </c>
       <c r="G397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3333332499999999</v>
       </c>
       <c r="H397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3333332499999999</v>
       </c>
       <c r="I397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3333332499999999</v>
       </c>
       <c r="J397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3333332499999999</v>
       </c>
       <c r="K397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3333332499999999</v>
       </c>
       <c r="L397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0437340384615383</v>
       </c>
       <c r="M397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.974661484375</v>
       </c>
       <c r="N397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0237916874999999</v>
       </c>
       <c r="O397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0077064220183487</v>
       </c>
       <c r="P397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.9893765107913669</v>
       </c>
       <c r="Q397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.99548360103626943</v>
       </c>
       <c r="R397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.99618025751072969</v>
       </c>
       <c r="S397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.99673992673992684</v>
       </c>
       <c r="T397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0002502715654951</v>
       </c>
       <c r="U397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.99176582152974513</v>
       </c>
       <c r="V397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0020558375634518</v>
       </c>
       <c r="W397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.99581986143187062</v>
       </c>
       <c r="X397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.99799506342494715</v>
       </c>
       <c r="Y397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.98989217190388168</v>
       </c>
       <c r="Z397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.99817421602787459</v>
       </c>
       <c r="AA397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0026904176904177</v>
       </c>
       <c r="AB397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0239284360986549</v>
       </c>
       <c r="AC397" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0392331542553193</v>
       </c>
     </row>
@@ -22326,103 +22145,103 @@
         <v>0</v>
       </c>
       <c r="E398" s="3">
-        <f t="shared" ref="E398:AC398" si="28">E394/E393</f>
+        <f t="shared" ref="E398:AC398" si="30">E394/E393</f>
         <v>0.58823541089966258</v>
       </c>
       <c r="F398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.90909080061984071</v>
       </c>
       <c r="G398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.90909080061984071</v>
       </c>
       <c r="H398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.90909080061984071</v>
       </c>
       <c r="I398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.90909080061984071</v>
       </c>
       <c r="J398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.90909080061984071</v>
       </c>
       <c r="K398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.54161090189696182</v>
       </c>
       <c r="L398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.72878953357629372</v>
       </c>
       <c r="M398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.49333037179580769</v>
       </c>
       <c r="N398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.59650659467996781</v>
       </c>
       <c r="O398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.61459264171350025</v>
       </c>
       <c r="P398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.61371969871520493</v>
       </c>
       <c r="Q398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.72753377771353844</v>
       </c>
       <c r="R398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.76331467135128561</v>
       </c>
       <c r="S398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.79082970026897559</v>
       </c>
       <c r="T398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.81513480993683995</v>
       </c>
       <c r="U398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.82553282514583615</v>
       </c>
       <c r="V398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.85073388969159125</v>
       </c>
       <c r="W398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.68944620771807519</v>
       </c>
       <c r="X398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.62105387715147697</v>
       </c>
       <c r="Y398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.63545858939880673</v>
       </c>
       <c r="Z398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.77829467333480284</v>
       </c>
       <c r="AA398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.81411874757657199</v>
       </c>
       <c r="AB398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.86310770190552033</v>
       </c>
       <c r="AC398" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.76425910018842724</v>
       </c>
     </row>

--- a/SMA - Software Measurement & Analysis/Assignment-08/SMA-TamDo-Ass08-Ver0.3.xlsx
+++ b/SMA - Software Measurement & Analysis/Assignment-08/SMA-TamDo-Ass08-Ver0.3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1935" windowWidth="14880" windowHeight="7485" activeTab="6"/>
@@ -271,6 +271,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -303,7 +304,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -361,80 +368,13 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -475,7 +415,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.1620514188988475E-2"/>
-          <c:y val="9.8835012472167291E-2"/>
+          <c:y val="9.8835012472167305E-2"/>
           <c:w val="0.92959295949811094"/>
           <c:h val="0.76830362435426691"/>
         </c:manualLayout>
@@ -1359,11 +1299,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84916096"/>
-        <c:axId val="84917632"/>
+        <c:axId val="60144640"/>
+        <c:axId val="60154624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84916096"/>
+        <c:axId val="60144640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,14 +1311,14 @@
         <c:minorGridlines/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84917632"/>
+        <c:crossAx val="60154624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84917632"/>
+        <c:axId val="60154624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1345,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84916096"/>
+        <c:crossAx val="60144640"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,7 +1358,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1445,6 +1385,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1731,11 +1672,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86809984"/>
-        <c:axId val="86844928"/>
+        <c:axId val="105413248"/>
+        <c:axId val="108140032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86809984"/>
+        <c:axId val="105413248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7"/>
@@ -1758,18 +1699,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86844928"/>
+        <c:crossAx val="108140032"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86844928"/>
+        <c:axId val="108140032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7"/>
@@ -1793,11 +1735,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86809984"/>
+        <c:crossAx val="105413248"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1806,12 +1749,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2262,15 +2206,15 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85233664"/>
-        <c:axId val="85235584"/>
+        <c:axId val="62160256"/>
+        <c:axId val="63318656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85233664"/>
+        <c:axId val="62160256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
-          <c:min val="0.75000000000000044"/>
+          <c:min val="0.75000000000000056"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
@@ -2294,25 +2238,25 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.43376895636975765"/>
-              <c:y val="0.94634176878234988"/>
+              <c:x val="0.43376895636975776"/>
+              <c:y val="0.94634176878234977"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85235584"/>
+        <c:crossAx val="63318656"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85235584"/>
+        <c:axId val="63318656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
-          <c:min val="0.75000000000000056"/>
+          <c:min val="0.75000000000000078"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -2344,7 +2288,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85233664"/>
+        <c:crossAx val="62160256"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -2357,10 +2301,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.8995888183730032"/>
+          <c:x val="0.89958881837300331"/>
           <c:y val="0.10192388451443568"/>
           <c:w val="8.225918147037381E-2"/>
-          <c:h val="0.37672736220472464"/>
+          <c:h val="0.37672736220472475"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -2368,7 +2312,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2395,6 +2339,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2755,11 +2700,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85291008"/>
-        <c:axId val="85292928"/>
+        <c:axId val="84587264"/>
+        <c:axId val="84589184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85291008"/>
+        <c:axId val="84587264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2782,16 +2727,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85292928"/>
+        <c:crossAx val="84589184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85292928"/>
+        <c:axId val="84589184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2813,22 +2759,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85291008"/>
+        <c:crossAx val="84587264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2854,6 +2802,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3277,15 +3226,15 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86389888"/>
-        <c:axId val="86391808"/>
+        <c:axId val="88275200"/>
+        <c:axId val="88386944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86389888"/>
+        <c:axId val="88275200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
-          <c:min val="0.75000000000000033"/>
+          <c:min val="0.75000000000000044"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -3304,20 +3253,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86391808"/>
+        <c:crossAx val="88386944"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86391808"/>
+        <c:axId val="88386944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
-          <c:min val="0.75000000000000033"/>
+          <c:min val="0.75000000000000044"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -3337,11 +3287,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86389888"/>
+        <c:crossAx val="88275200"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -3350,12 +3301,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3382,6 +3334,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3586,11 +3539,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86434560"/>
-        <c:axId val="86436480"/>
+        <c:axId val="89666688"/>
+        <c:axId val="89836160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86434560"/>
+        <c:axId val="89666688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,16 +3566,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86436480"/>
+        <c:crossAx val="89836160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86436480"/>
+        <c:axId val="89836160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3644,22 +3598,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86434560"/>
+        <c:crossAx val="89666688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3685,6 +3641,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3899,15 +3856,15 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86484864"/>
-        <c:axId val="86659072"/>
+        <c:axId val="95994240"/>
+        <c:axId val="95996928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86484864"/>
+        <c:axId val="95994240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
-          <c:min val="0.75000000000000056"/>
+          <c:min val="0.75000000000000078"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -3926,20 +3883,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86659072"/>
+        <c:crossAx val="95996928"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86659072"/>
+        <c:axId val="95996928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
-          <c:min val="0.75000000000000056"/>
+          <c:min val="0.75000000000000078"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -3959,11 +3917,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86484864"/>
+        <c:crossAx val="95994240"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -3972,12 +3931,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4004,6 +3964,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4256,11 +4217,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86817792"/>
-        <c:axId val="86598784"/>
+        <c:axId val="98131968"/>
+        <c:axId val="98134272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86817792"/>
+        <c:axId val="98131968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4283,16 +4244,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86598784"/>
+        <c:crossAx val="98134272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86598784"/>
+        <c:axId val="98134272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4314,22 +4276,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86817792"/>
+        <c:crossAx val="98131968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4355,6 +4319,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4592,15 +4557,15 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86624512"/>
-        <c:axId val="86688128"/>
+        <c:axId val="98171520"/>
+        <c:axId val="99209216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86624512"/>
+        <c:axId val="98171520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7"/>
-          <c:min val="0.30000000000000016"/>
+          <c:min val="0.30000000000000021"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -4619,22 +4584,23 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86688128"/>
+        <c:crossAx val="99209216"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="2.0000000000000011E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86688128"/>
+        <c:axId val="99209216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7"/>
-          <c:min val="0.30000000000000016"/>
+          <c:min val="0.30000000000000021"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -4654,11 +4620,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86624512"/>
+        <c:crossAx val="98171520"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4667,12 +4634,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -4699,6 +4667,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5011,11 +4980,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86693760"/>
-        <c:axId val="86794240"/>
+        <c:axId val="105132800"/>
+        <c:axId val="105163008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86693760"/>
+        <c:axId val="105132800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5038,16 +5007,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86794240"/>
+        <c:crossAx val="105163008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86794240"/>
+        <c:axId val="105163008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5069,22 +5039,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86693760"/>
+        <c:crossAx val="105132800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5852,7 +5824,7 @@
         </a:prstGeom>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="363636"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </cdr:spPr>
@@ -11119,7 +11091,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="363636"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -13242,8 +13214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A76:AW409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE80" sqref="AE80:AW80"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="T74" sqref="T74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13513,7 +13485,7 @@
         <v>6983.2683300000008</v>
       </c>
       <c r="AC78" s="14">
-        <f t="shared" si="4"/>
+        <f>AC158+1332+2434.86+AC393</f>
         <v>7443.2683300000008</v>
       </c>
       <c r="AD78" s="3">
@@ -13665,8 +13637,8 @@
         <f t="shared" si="7"/>
         <v>3945.7852000000003</v>
       </c>
-      <c r="R79" s="3">
-        <f t="shared" si="2"/>
+      <c r="R79" s="19">
+        <f>R159+1332+R315+R394</f>
         <v>4125.7485299999998</v>
       </c>
       <c r="S79" s="3">
@@ -13810,7 +13782,7 @@
         <f>S160+1292+S316+S395</f>
         <v>3966</v>
       </c>
-      <c r="T80" s="3">
+      <c r="T80" s="14">
         <f>T160+1332+T316+T395</f>
         <v>4182</v>
       </c>
@@ -13847,7 +13819,7 @@
         <v>6344</v>
       </c>
       <c r="AC80" s="14">
-        <f t="shared" si="12"/>
+        <f>AC160+1332+2164+AC395</f>
         <v>6460</v>
       </c>
       <c r="AD80" s="3">
@@ -14007,7 +13979,7 @@
         <f t="shared" si="14"/>
         <v>339.74852999999985</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T81" s="14">
         <f t="shared" si="14"/>
         <v>305.6851999999999</v>
       </c>
